--- a/modules/idaithalam/src/test/resources/Excels/virtualan_collection_kafka_db_testcase_0.xlsx
+++ b/modules/idaithalam/src/test/resources/Excels/virtualan_collection_kafka_db_testcase_0.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Extra\Conflict Resolving\idaithalam\modules\idaithalam\src\test\resources\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C97C6D-3555-4389-A66C-66D0D458F86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="API-Testing" sheetId="1" r:id="rId4"/>
+    <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -31,33 +37,15 @@
     <t>RequestFile</t>
   </si>
   <si>
-    <t>RequestProcessingType</t>
-  </si>
-  <si>
     <t>ResponseFile</t>
   </si>
   <si>
-    <t>ResponseProcessingType</t>
-  </si>
-  <si>
-    <t>HTTPAction</t>
-  </si>
-  <si>
-    <t>ExcludeField</t>
-  </si>
-  <si>
-    <t>HttpStatusCode</t>
-  </si>
-  <si>
     <t>PetGet</t>
   </si>
   <si>
     <t>get API testing</t>
   </si>
   <si>
-    <t>https://live.virtualandemo.com/api/pets/findByTags?tags=grey</t>
-  </si>
-  <si>
     <t>application/json</t>
   </si>
   <si>
@@ -85,15 +73,9 @@
     <t>POST</t>
   </si>
   <si>
-    <t>RequestHeaders</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>ExcludeFields</t>
-  </si>
-  <si>
     <t>StatusCode</t>
   </si>
   <si>
@@ -103,90 +85,30 @@
     <t>Resource</t>
   </si>
   <si>
-    <t>Kafka</t>
-  </si>
-  <si>
-    <t>PetPost-ById</t>
-  </si>
-  <si>
-    <t>PetPost-Verify</t>
-  </si>
-  <si>
-    <t>Verify Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pet </t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>REST</t>
   </si>
   <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pet</t>
-  </si>
-  <si>
     <t>pet</t>
   </si>
   <si>
-    <t>pet data</t>
-  </si>
-  <si>
-    <t>pet contains</t>
-  </si>
-  <si>
     <t>Csvson</t>
   </si>
   <si>
     <t>ResponseByFields</t>
   </si>
   <si>
-    <t>id | i~200</t>
-  </si>
-  <si>
-    <t>id=i~200</t>
-  </si>
-  <si>
-    <t>id=i~200;name=doggie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  | id,name, category/id:name,status    |
-      | i~200,doggie,i~100:string,available |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   id,name, category/id:name,status;i~200,doggie,i~100:string,available</t>
-  </si>
-  <si>
     <t>KAFKA</t>
   </si>
   <si>
-    <t>PetPost-DB-Verify</t>
-  </si>
-  <si>
     <t>IncludesByPath</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>id;category.name</t>
   </si>
   <si>
-    <t xml:space="preserve">   id,name, category/id:name,statusi~200,doggie,i~100:string,available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   id,name, category/id:name,status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   id,name, category/id:name,status
-i~200,doggie,i~100:string,available
-</t>
-  </si>
-  <si>
     <t>Identifier</t>
   </si>
   <si>
@@ -200,13 +122,6 @@
   </si>
   <si>
     <t>DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select * from employees where emp_no = 1                  EMP_NO,BIRTH_DATE,FIRST_NAME,LAST_NAME,GENDER,HIRE_DATE   i~1,l~253087200000,ELan,Thangamani,Male,l~1191992400000          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">select * from employees where emp_no = 1 
-EMP_NO,BIRTH_DATE,FIRST_NAME,LAST_NAME,GENDER,HIRE_DATE   i~1,l~253087200000,ELan,Thangamani,Male,l~1191992400000          </t>
   </si>
   <si>
     <t xml:space="preserve">select * from employees where emp_no = 1 
@@ -214,17 +129,6 @@
 i~1,l~253087200000,ELan,Thangamani,Male,l~1191992400000          </t>
   </si>
   <si>
-    <t xml:space="preserve">id,name, category/id:name,status
-i~200,doggie,i~100:string,available
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pet </t>
-  </si>
-  <si>
-    <t>RequestContents</t>
-  </si>
-  <si>
     <t>create table employees (emp_no int, birth_date date,first_name VARCHAR(50),last_name VARCHAR(50), gender VARCHAR(50),hire_date date)</t>
   </si>
   <si>
@@ -234,37 +138,22 @@
     <t>INSERT</t>
   </si>
   <si>
-    <t>insert into employees (emp_no,birth_date,first_name,last_name, gender,hire_date) values  (2,'1978-01-08','ELan', 'Thangamani', 'Male', '2007-10-10')</t>
-  </si>
-  <si>
     <t>RequestContent</t>
   </si>
   <si>
     <t>StepInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate pet </t>
-  </si>
-  <si>
     <t>Validate pet Response</t>
   </si>
   <si>
-    <t>bu</t>
-  </si>
-  <si>
     <t>contains pet information</t>
   </si>
   <si>
-    <t>Create pet data</t>
-  </si>
-  <si>
     <t>Create employee Table</t>
   </si>
   <si>
     <t>Insert Employee info</t>
-  </si>
-  <si>
-    <t>validate employee information</t>
   </si>
   <si>
     <t>insert into employees (emp_no,birth_date,first_name,last_name, gender,hire_date) values  (1,'1978-01-08','ELan', 'Thangamani', 'Male', '2007-10-10')</t>
@@ -278,21 +167,12 @@
     <t>id=i~100;name=doggie</t>
   </si>
   <si>
-    <t>PetPost-Kafka</t>
-  </si>
-  <si>
     <t>Pet-Kafka</t>
   </si>
   <si>
     <t>PetPost-kafka-response</t>
   </si>
   <si>
-    <t>Pet-DB</t>
-  </si>
-  <si>
-    <t>Pet-DB-2</t>
-  </si>
-  <si>
     <t>Pet-DB-1</t>
   </si>
   <si>
@@ -320,12 +200,6 @@
     <t>get By Id</t>
   </si>
   <si>
-    <t>https://live.virtualandemo.com/api/pets/100</t>
-  </si>
-  <si>
-    <t>https://live.virtualandemo.com/api/pets/&lt;petId&gt;</t>
-  </si>
-  <si>
     <t>https://live.virtualandemo.com/api/pets/[petId]</t>
   </si>
   <si>
@@ -335,18 +209,7 @@
     <t>petId=100</t>
   </si>
   <si>
-    <t>id=i~100;name=Rocky</t>
-  </si>
-  <si>
-    <t>id=i~101;name=Rocky</t>
-  </si>
-  <si>
     <t>name=Rocky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id,name, category/id:name,status
-i~101,Rockey,i~100:string,available
-</t>
   </si>
   <si>
     <t>id,name, category/id:name,status
@@ -354,56 +217,49 @@
   </si>
   <si>
     <t>VERIFY</t>
+  </si>
+  <si>
+    <t>fetch employee records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
       <name val="Consolas"/>
-      <b/>
-      <color rgb="FF008000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
       <name val="Inconsolata"/>
-      <b/>
-      <color rgb="FF1155CC"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -411,7 +267,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -421,10 +277,16 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -439,25 +301,28 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -647,46 +512,49 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.35" customWidth="1"/>
-    <col min="5" max="5" width="22.61" customWidth="1"/>
-    <col min="6" max="6" width="61.2" customWidth="1"/>
-    <col min="7" max="7" width="24.47" customWidth="1"/>
-    <col min="10" max="10" width="68.38" customWidth="1"/>
-    <col min="14" max="14" width="19.97" customWidth="1"/>
-    <col min="15" max="15" width="22.59" customWidth="1"/>
-    <col min="17" max="17" width="18.42" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="61.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="68.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>28</v>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>72</v>
+      <c r="E1" t="s">
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -695,275 +563,290 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>50</v>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3">
+        <v>200</v>
       </c>
     </row>
-    <row ht="20.25" customHeight="1" r="2">
-      <c r="A2" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="0">
-        <v>100</v>
-      </c>
-      <c r="K2" s="0" t="s">
+    <row r="4" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
         <v>59</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="R3" s="0">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="R4" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R5" s="1">
         <v>200</v>
       </c>
     </row>
-    <row ht="20.25" customHeight="1" r="6">
-      <c r="A6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="0">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
         <v>100</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>59</v>
+      <c r="K6" t="s">
+        <v>32</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="P8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="P7" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row ht="11.45" customHeight="1" r="8">
-      <c r="A8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="P8" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="0" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
         <v>63</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -973,9 +856,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{09AF4036-2F71-4136-BB79-3EDA0493BCD9}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{78133BA8-CD94-4CED-8DA0-0F042CA330E7}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{2989854B-D77A-4F95-81F9-7CEDD4257A42}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>